--- a/050_DBTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
+++ b/050_DBTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="代码模板" sheetId="5" r:id="rId1"/>
@@ -655,7 +655,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="236">
   <si>
     <t>后缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -790,28 +790,6 @@
   </si>
   <si>
     <t>需要修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.util.Map;
-import org.apache.ibatis.annotations.Mapper;
-import org.apache.ibatis.annotations.Param;
-import com.baomidou.mybatisplus.core.mapper.BaseMapper;
-import com.szlanyou.vehicle.pms.south.infrastructure.entity.#ENT_NAME#;
-/**
- * &lt;p&gt;
- * #ENT_NAME_CN# Mapper 接口
- * &lt;/p&gt;
- *
- * @author #AUTHOR_DEV#
- * @since #DATE_NOW#
- */
-@Mapper
-public interface #ENT_NAME#Mapper extends BaseMapper&lt;#ENT_NAME#&gt; {
- List&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(@Param("param")Map&lt;String, Object&gt; map);
- int ven#ENT_NAME#Save(@Param("param")#ENT_NAME# param);
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -845,19 +823,6 @@
     public void setSaveObj(List&lt;#ENT_NAME#SaveLocal&gt; saveObj) {
         this.saveObj = saveObj;
     }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-public interface #ENT_NAME#Clients {
- ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo);
- OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo);
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -892,32 +857,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>package #PACK_PATH#;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.stereotype.Component;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
-import com.szlanyou.busicen.vehicle.pms.south.port.clients.#ENT_NAME#Clients;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-@Component
-public class #ENT_NAME#Adapter implements #ENT_NAME#Clients {
- @Autowired
- FeignPmsAdapter feignPmsAdapter;
- @Override
- public ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo) {
-  ListResult&lt;#ENT_NAME#LocalOut&gt; result = feignPmsAdapter.ven#ENT_NAME#Query(dataInfo);
-  return result;
- }
- @Override
- public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo) {
-  return feignPmsAdapter.ven#ENT_NAME#Save(dataInfo);
- }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发语言类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -932,154 +871,10 @@
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\query\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\dto\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\local\in\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\local\in\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\local\out\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\local\appservice\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\south\port\clients\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\south\adapter\clients\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\local\appservices\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\message\dto\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\message\query\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\message\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\adapter\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\infrastructure\entity\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\infrastructure\mapper\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\port\repositories\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>resources\mybatis\mapper\</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message.query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.dto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.remote.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.local.appservice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.south.port.clients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.south.adapter.clients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.local.appservices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message.dto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\remote\controller\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.remote.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.infrastructure.entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.infrastructure.mapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.port.repositories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
@@ -1309,82 +1104,357 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#DATE_NOW#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PACK_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xxx.xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TABLE_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中的表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大驼峰式实体名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME_LCC#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小驼峰式实体名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME_CN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大驼峰式字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_LCC#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小驼峰式字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_CN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列名，我们一般使用下横线分隔单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_LEN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_TYPE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列类型（不含长度或精度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_TYPE_LEN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的长度（含长度或精度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10),decimal(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_BEG#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_END#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_KEY#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的主外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK，FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NOT_NULL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列是否非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是，0或空为否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEF_VAL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字，字符或函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_EXT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些值范围说明等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_ENT_TYPE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段的实体类型，根据【类型转换】页签来转换，默认为String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_EXT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ApiModelProperty(value = "#COL_NAME_CN#")
+@TableField("#COL_DB_NAME#")
+private #COL_ENT_TYPE# #COL_NAME_LCC#;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"#COL_DB_NAME#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗号连接的所有列字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量内容条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_LIST_STR#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;!DOCTYPE mapper PUBLIC "-//mybatis.org//DTD Mapper 3.0//EN" "http://mybatis.org/dtd/mybatis-3-mapper.dtd"&gt;
+&lt;mapper namespace="#PACK_MB_MAP#"&gt;
+    &lt;!-- 通用查询映射结果 --&gt;
+    &lt;resultMap id="BaseResultMap" type="#PACK_MB_ENT#.#ENT_NAME#"&gt;
+        #COL_MAP_NODE#
+    &lt;/resultMap&gt;
+    &lt;!-- 通用查询结果列 --&gt;
+    &lt;sql id="Base_Column_List"&gt;
+       #COL_LIST_STR#
+    &lt;/sql&gt;
+    &lt;select id="ven#ENT_NAME#Query" resultType="#PACK_QRY_DM_OUT#.#ENT_NAME#QueryDomainOut"&gt;
+    &lt;/select&gt;
+    &lt;insert id="ven#ENT_NAME#Save"&gt;
+    &lt;/insert&gt;
+    &lt;update id="ven#ENT_NAME#Update"&gt;
+    &lt;/update&gt;
+&lt;/mapper&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.query</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\message\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\message\dto\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.dto</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\message\local\in\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\message\local\out\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.out</t>
+  </si>
+  <si>
+    <t>\busicen\vehicle\#MODULE_NAME#\north\remote\controller\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.remote.controller</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\local\appservice\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.local.appservice</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.south.port.clients</t>
+  </si>
+  <si>
     <t>package #PACK_PATH#;
-import javax.validation.Valid;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.validation.annotation.Validated;
-import org.springframework.web.bind.annotation.PostMapping;
-import org.springframework.web.bind.annotation.RequestBody;
-import org.springframework.web.bind.annotation.RequestMapping;
-import org.springframework.web.bind.annotation.RequestMethod;
-import org.springframework.web.bind.annotation.RestController;
-import com.szlanyou.busicen.vehicle.pms.north.local.appservice.#ENT_NAME#Appservice;
-import com.szlanyou.busicen.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.busicen.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.busicen.vehicle.pms.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#QueryLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#SaveLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.out.#ENT_NAME#LocalOut;
 import com.szlanyou.cloud.common.core.entities.ListResult;
 import com.szlanyou.cloud.common.core.entities.OptResult;
-import io.swagger.annotations.Api;
-import io.swagger.annotations.ApiOperation;
-@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
-@RestController
-@RequestMapping(value = "/pms")
-@Validated
-public class #ENT_NAME#Controller {
- @Autowired
- #ENT_NAME#Appservice #ENT_NAME_LCC#Appservice;
- @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
- @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
- public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(
-   @RequestBody(required = false) @Valid #ENT_NAME#Qry dataInfo) {
-  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Query(dataInfo);
- }
- @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
- @PostMapping(value = "ven#ENT_NAME#Save")
- public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest dataInfo) {
-  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Save(dataInfo);
- }
+public interface #ENT_NAME#Clients {
+ ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo);
+ OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo);
 }</t>
   </si>
   <si>
-    <t>package #PACK_PATH#;
-import javax.validation.Valid;
-import org.springframework.beans.BeanUtils;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.stereotype.Service;
-import com.szlanyou.busicen.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.busicen.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
-import com.szlanyou.busicen.vehicle.pms.north.message.query.#ENT_NAME#Qry;
-import com.szlanyou.busicen.vehicle.pms.south.port.clients.#ENT_NAME#Clients;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.youcloud.core.util.LyListResultUtil;
-import com.szlanyou.youcloud.core.util.LyObjectUtil;
-@Service
-public class #ENT_NAME#Appservice {
- @Autowired
- private transient #ENT_NAME#Clients #ENT_NAME_LCC#Clients;
- public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(@Valid #ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
-  #ENT_NAME#QueryLocalIn queryLocalIn = new #ENT_NAME#QueryLocalIn();
-  BeanUtils.copyProperties(#ENT_NAME_LCC#Qry, queryLocalIn);
-  ListResult&lt;#ENT_NAME#LocalOut&gt; result = #ENT_NAME_LCC#Clients.ven#ENT_NAME#Query(queryLocalIn);
-  return LyListResultUtil.convertTo(result, #ENT_NAME#Dto.class);
- }
- public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest dataInfo) {
-  #ENT_NAME#SaveLocalIn saveLocalIn = LyObjectUtil.convertToByJSON(dataInfo,
-    #ENT_NAME#SaveLocalIn.class);
-  return dbOrderConfirmClients.ven#ENT_NAME#Save(saveLocalIn);
- }
-}</t>
-  </si>
-  <si>
-    <t>vehicle\pms\domain\#ENT_NAME_LCC#\</t>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#</t>
+    <t>busicen\vehicle\#MODULE_NAME#\south\adapter\clients\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.south.adapter.clients</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\domain\#ENT_NAME_LCC#\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.domain.#ENT_NAME_LCC#</t>
   </si>
   <si>
     <t>package #PACK_PATH#;
@@ -1392,9 +1462,9 @@
 import org.springframework.stereotype.Service;
 import com.szlanyou.cloud.common.core.entities.ListResult;
 import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.south.adapter.clients.feignparam.FeignPrc;
-import com.szlanyou.vehicle.pms.south.adapter.clients.feignparam.FeignScm;
-import com.szlanyou.vehicle.pms.south.port.repositories.#ENT_NAME#Repositories;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.adapter.clients.feignparam.FeignPrc;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.adapter.clients.feignparam.FeignScm;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.port.repositories.#ENT_NAME#Repositories;
 @Service
 public class #ENT_NAME#DomainService {
     @Autowired
@@ -1408,83 +1478,40 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">package #PACK_PATH#;
-import org.springframework.beans.BeanUtils;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.stereotype.Service;
-import org.springframework.transaction.annotation.Transactional;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#DomainService;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
-import com.szlanyou.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.vehicle.pms.north.message.query.#ENT_NAME#Qry;
-import com.szlanyou.youcloud.core.util.LyListResultUtil;
-import com.szlanyou.youcloud.core.util.LyObjectUtil;
-@Service
-public class #ENT_NAME#Service {
-    @Autowired
-    private transient #ENT_NAME#DomainService #ENT_NAME_LCC#DomainService;
-    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(#ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
-     #ENT_NAME#QueryDomainIn #ENT_NAME_LCC#QueryDomainIn = new #ENT_NAME#QueryDomainIn();
-        BeanUtils.copyProperties(#ENT_NAME_LCC#Qry, #ENT_NAME_LCC#QueryDomainIn);
-        return LyListResultUtil.convertTo(#ENT_NAME_LCC#DomainService.ven#ENT_NAME_LCC#Query(#ENT_NAME_LCC#QueryDomainIn),
-          #ENT_NAME#Dto.class);
-    }
-    @Transactional(rollbackFor = Exception.class)
-    public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest #ENT_NAME_LCC#SaveRequest) {
-     #ENT_NAME#SaveDomainIn #ENT_NAME_LCC#SaveDomainIn = LyObjectUtil.convertToByJSON(#ENT_NAME_LCC#SaveRequest,
-       #ENT_NAME#SaveDomainIn.class);
-        return #ENT_NAME_LCC#DomainService.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveDomainIn);
-    }
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">package #PACK_PATH#;
-import javax.validation.Valid;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.http.MediaType;
-import org.springframework.web.bind.annotation.RequestBody;
-import org.springframework.web.bind.annotation.RequestMapping;
-import org.springframework.web.bind.annotation.RequestMethod;
-import org.springframework.web.bind.annotation.RestController;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.north.local.appservices.#ENT_NAME#Service;
-import com.szlanyou.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.vehicle.pms.north.message.query.#ENT_NAME#Qry;
-import io.swagger.annotations.Api;
-import io.swagger.annotations.ApiOperation;
-/**
- * &lt;p&gt;
- * #ENT_NAME_CN# 前端控制器
- * &lt;/p&gt;
- *
- * @author #AUTHOR_DEV#
- * @since #DATE_NOW#
- */
-@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
-@RestController
-@RequestMapping(value = "/pmsBasics", produces = { MediaType.APPLICATION_JSON_VALUE })
-public class #ENT_NAME#Controller {
-    @Autowired
-    private transient #ENT_NAME#Service #ENT_NAME_LCC#Service;
-    @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
-    @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
-    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(@RequestBody @Valid #ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
-        return #ENT_NAME_LCC#Service.ven#ENT_NAME#Query(#ENT_NAME_LCC#Qry);
-    }
-    @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
-    @RequestMapping(value = "ven#ENT_NAME#Save", method = RequestMethod.POST)
-    public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest #ENT_NAME_LCC#SaveRequest) {
-        return #ENT_NAME_LCC#Service.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveRequest);
-    }
-}
-</t>
+    <t>vehicle\#MODULE_NAME#\north\local\appservices\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.north.local.appservices</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\north\message\dto\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.north.message.dto</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\north\message\query\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.north.message.query</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\north\message\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.north.message</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\north\remote\controller\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.north.remote.controller</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\south\adapter\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.south.adapter</t>
   </si>
   <si>
     <t xml:space="preserve">package #PACK_PATH#;
@@ -1506,14 +1533,14 @@
 import com.szlanyou.cloud.mybatis.util.BusicenUtils;
 import com.szlanyou.cloud.uid.utils.LyIdUtils;
 import com.szlanyou.context.BusinessContext;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#QueryDomainIn;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#QueryDomainOut;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#SaveDomain;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#SaveDomainIn;
-import com.szlanyou.vehicle.pms.south.infrastructure.entity.#ENT_NAME#;
-import com.szlanyou.vehicle.pms.south.infrastructure.mapper.#ENT_NAME#Mapper;
-import com.szlanyou.vehicle.pms.south.port.repositories.#ENT_NAME#Repositories;
-import com.szlanyou.vehicle.pms.util.StringUtil;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.#ENT_NAME_LCC#.#ENT_NAME#QueryDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.#ENT_NAME_LCC#.#ENT_NAME#QueryDomainOut;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.#ENT_NAME_LCC#.#ENT_NAME#SaveDomain;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.#ENT_NAME_LCC#.#ENT_NAME#SaveDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.infrastructure.entity.#ENT_NAME#;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.infrastructure.mapper.#ENT_NAME#Mapper;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.port.repositories.#ENT_NAME#Repositories;
+import com.szlanyou.vehicle.#MODULE_NAME#.util.StringUtil;
 import com.szlanyou.youcloud.core.exception.BizException;
 import com.szlanyou.youcloud.core.util.LyListResultUtil;
 import com.szlanyou.youcloud.core.util.LyOptResultUtil;
@@ -1584,314 +1611,477 @@
 </t>
   </si>
   <si>
+    <t>vehicle\#MODULE_NAME#\south\infrastructure\entity\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.south.infrastructure.entity</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\south\infrastructure\mapper\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.south.infrastructure.mapper</t>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.util.Map;
+import org.apache.ibatis.annotations.Mapper;
+import org.apache.ibatis.annotations.Param;
+import com.baomidou.mybatisplus.core.mapper.BaseMapper;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.infrastructure.entity.#ENT_NAME#;
+/**
+ * &lt;p&gt;
+ * #ENT_NAME_CN# Mapper 接口
+ * &lt;/p&gt;
+ *
+ * @author #AUTHOR_DEV#
+ * @since #DATE_NOW#
+ */
+@Mapper
+public interface #ENT_NAME#Mapper extends BaseMapper&lt;#ENT_NAME#&gt; {
+ List&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(@Param("param")Map&lt;String, Object&gt; map);
+ int ven#ENT_NAME#Save(@Param("param")#ENT_NAME# param);
+}</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\south\port\repositories\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.south.port.repositories</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\message\query\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BUSICEN_QUERY_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BUSICEN_SAVE_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen-vehicle-oms-core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BUSICEN_CORE_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#MODULE_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen-vehicle-oms-core-query-service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen-vehicle-oms-core-service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名，用于Controller的前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心代码(除Controller之外的类)的工程目录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅包含查询的Controller的工程目录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅包含保存的Controller的工程目录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-查询实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-保存实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-保存请求实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-DTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-查询LocalIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-保存Local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-保存LocalIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-查询LocalOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.validation.annotation.Validated;
+import org.springframework.web.bind.annotation.PostMapping;
+import org.springframework.web.bind.annotation.RequestBody;
+import org.springframework.web.bind.annotation.RequestMapping;
+import org.springframework.web.bind.annotation.RequestMethod;
+import org.springframework.web.bind.annotation.RestController;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.local.appservice.#ENT_NAME#Appservice;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import io.swagger.annotations.Api;
+import io.swagger.annotations.ApiOperation;
+@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
+@RestController
+@RequestMapping(value = "/#MODULE_NAME#")
+@Validated
+@CQRSKind(CQRSKindEnum.QUERY)
+public class #ENT_NAME#Controller {
+ @Autowired
+ #ENT_NAME#Appservice #ENT_NAME_LCC#Appservice;
+ @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
+ @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
+ public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(
+   @RequestBody(required = false) @Valid #ENT_NAME#Qry dataInfo) {
+  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Query(dataInfo);
+ }
+ @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
+ @PostMapping(value = "ven#ENT_NAME#Save")
+ public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest dataInfo) {
+  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Save(dataInfo);
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-查询Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-保存Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.validation.annotation.Validated;
+import org.springframework.web.bind.annotation.PostMapping;
+import org.springframework.web.bind.annotation.RequestBody;
+import org.springframework.web.bind.annotation.RequestMapping;
+import org.springframework.web.bind.annotation.RequestMethod;
+import org.springframework.web.bind.annotation.RestController;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.local.appservice.#ENT_NAME#Appservice;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import io.swagger.annotations.Api;
+import io.swagger.annotations.ApiOperation;
+@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
+@RestController
+@RequestMapping(value = "/#MODULE_NAME#")
+@Validated
+@CQRSKind(CQRSKindEnum.QUERY)
+public class #ENT_NAME#Controller {
+ @Autowired
+ #ENT_NAME#Appservice #ENT_NAME_LCC#Appservice;
+ @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
+ @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
+ public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(
+   @RequestBody(required = false) @Valid #ENT_NAME#Qry dataInfo) {
+  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Query(dataInfo);
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.BeanUtils;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.stereotype.Service;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#QueryLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#SaveLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.out.#ENT_NAME#LocalOut;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.south.port.clients.#ENT_NAME#Clients;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.youcloud.core.util.LyListResultUtil;
+import com.szlanyou.youcloud.core.util.LyObjectUtil;
+@Service
+public class #ENT_NAME#Appservice {
+ @Autowired
+ private transient #ENT_NAME#Clients #ENT_NAME_LCC#Clients;
+ public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest dataInfo) {
+  #ENT_NAME#SaveLocalIn saveLocalIn = LyObjectUtil.convertToByJSON(dataInfo,
+    #ENT_NAME#SaveLocalIn.class);
+  return dbOrderConfirmClients.ven#ENT_NAME#Save(saveLocalIn);
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\south\port\clients\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.stereotype.Component;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#QueryLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#SaveLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.out.#ENT_NAME#LocalOut;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.south.port.clients.#ENT_NAME#Clients;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+@Component
+public class #ENT_NAME#Adapter implements #ENT_NAME#Clients {
+ @Autowired
+ Feign#MODULE_NAME#Adapter feign#MODULE_NAME#Adapter;
+ @Override
+ public ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo) {
+  ListResult&lt;#ENT_NAME#LocalOut&gt; result = feign#MODULE_NAME#Adapter.ven#ENT_NAME#Query(dataInfo);
+  return result;
+ }
+ @Override
+ public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo) {
+  return feign#MODULE_NAME#Adapter.ven#ENT_NAME#Save(dataInfo);
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-客户端接口层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-客户端适配实现层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-领域服务层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-领域-查询In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-领域-查询Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-领域-保存In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-领域-保存实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import org.springframework.beans.BeanUtils;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.stereotype.Service;
+import org.springframework.transaction.annotation.Transactional;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#DomainService;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.youcloud.core.util.LyListResultUtil;
+import com.szlanyou.youcloud.core.util.LyObjectUtil;
+@Service
+public class #ENT_NAME#Service {
+    @Autowired
+    private transient #ENT_NAME#DomainService #ENT_NAME_LCC#DomainService;
+    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(#ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
+     #ENT_NAME#QueryDomainIn #ENT_NAME_LCC#QueryDomainIn = new #ENT_NAME#QueryDomainIn();
+        BeanUtils.copyProperties(#ENT_NAME_LCC#Qry, #ENT_NAME_LCC#QueryDomainIn);
+        return LyListResultUtil.convertTo(#ENT_NAME_LCC#DomainService.ven#ENT_NAME_LCC#Query(#ENT_NAME_LCC#QueryDomainIn),
+          #ENT_NAME#Dto.class);
+    }
+    @Transactional(rollbackFor = Exception.class)
+    public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest #ENT_NAME_LCC#SaveRequest) {
+     #ENT_NAME#SaveDomainIn #ENT_NAME_LCC#SaveDomainIn = LyObjectUtil.convertToByJSON(#ENT_NAME_LCC#SaveRequest,
+       #ENT_NAME#SaveDomainIn.class);
+        return #ENT_NAME_LCC#DomainService.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveDomainIn);
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-应用服务层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-查询DTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-查询Qry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-保存In-请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-保存In实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-控制器-查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-控制器-保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.http.MediaType;
+import org.springframework.web.bind.annotation.RequestBody;
+import org.springframework.web.bind.annotation.RequestMapping;
+import org.springframework.web.bind.annotation.RequestMethod;
+import org.springframework.web.bind.annotation.RestController;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.local.appservices.#ENT_NAME#Service;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import io.swagger.annotations.Api;
+import io.swagger.annotations.ApiOperation;
+/**
+ * &lt;p&gt;
+ * #ENT_NAME_CN# 前端控制器
+ * &lt;/p&gt;
+ *
+ * @author #AUTHOR_DEV#
+ * @since #DATE_NOW#
+ */
+@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
+@RestController
+@RequestMapping(value = "/#MODULE_NAME#Basics", produces = { MediaType.APPLICATION_JSON_VALUE })
+public class #ENT_NAME#Controller {
+    @Autowired
+    private transient #ENT_NAME#Service #ENT_NAME_LCC#Service;
+    @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
+    @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
+    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(@RequestBody @Valid #ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
+        return #ENT_NAME_LCC#Service.ven#ENT_NAME#Query(#ENT_NAME_LCC#Qry);
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.http.MediaType;
+import org.springframework.web.bind.annotation.RequestBody;
+import org.springframework.web.bind.annotation.RequestMapping;
+import org.springframework.web.bind.annotation.RequestMethod;
+import org.springframework.web.bind.annotation.RestController;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.local.appservices.#ENT_NAME#Service;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import io.swagger.annotations.Api;
+import io.swagger.annotations.ApiOperation;
+/**
+ * &lt;p&gt;
+ * #ENT_NAME_CN# 前端控制器
+ * &lt;/p&gt;
+ *
+ * @author #AUTHOR_DEV#
+ * @since #DATE_NOW#
+ */
+@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
+@RestController
+@RequestMapping(value = "/#MODULE_NAME#Basics", produces = { MediaType.APPLICATION_JSON_VALUE })
+public class #ENT_NAME#Controller {
+    @Autowired
+    private transient #ENT_NAME#Service #ENT_NAME_LCC#Service;
+    @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
+    @RequestMapping(value = "ven#ENT_NAME#Save", method = RequestMethod.POST)
+    public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest #ENT_NAME_LCC#SaveRequest) {
+        return #ENT_NAME_LCC#Service.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveRequest);
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>package #PACK_PATH#;
 import com.szlanyou.cloud.common.core.entities.ListResult;
 import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainOut;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#QueryDomainOut;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
 public interface #ENT_NAME#Repositories {
  ListResult&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryDomainIn #ENT_NAME_LCC#QueryDomainIn);
  OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveDomainIn #ENT_NAME_LCC#SaveDomainIn);
 }</t>
-  </si>
-  <si>
-    <t>#DATE_NOW#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PACK_PATH#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.xxx.xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TABLE_DB_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库中的表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB_City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大驼峰式实体名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DbCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME_LCC#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小驼峰式实体名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME_CN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大驼峰式字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME_LCC#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小驼峰式字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME_CN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列名，我们一般使用下横线分隔单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_LEN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_TYPE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列类型（不含长度或精度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_TYPE_LEN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的长度（含长度或精度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10),decimal(10,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_DEC_BEG#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的精度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_DEC_END#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的小数位数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_KEY#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的主外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK，FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_NOT_NULL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列是否非空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是，0或空为否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_DEF_VAL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字，字符或函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_EXT#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的备注信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些值范围说明等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_ENT_TYPE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段的实体类型，根据【类型转换】页签来转换，默认为String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_EXT#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @ApiModelProperty(value = "#COL_NAME_CN#")
-@TableField("#COL_DB_NAME#")
-private #COL_ENT_TYPE# #COL_NAME_LCC#;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.adapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\busicen\vehicle\pms\north\remote\controller\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"#COL_DB_NAME#"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逗号连接的所有列字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量内容条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_LIST_STR#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;!DOCTYPE mapper PUBLIC "-//mybatis.org//DTD Mapper 3.0//EN" "http://mybatis.org/dtd/mybatis-3-mapper.dtd"&gt;
-&lt;mapper namespace="#PACK_MB_MAP#"&gt;
-    &lt;!-- 通用查询映射结果 --&gt;
-    &lt;resultMap id="BaseResultMap" type="#PACK_MB_ENT#.#ENT_NAME#"&gt;
-        #COL_MAP_NODE#
-    &lt;/resultMap&gt;
-    &lt;!-- 通用查询结果列 --&gt;
-    &lt;sql id="Base_Column_List"&gt;
-       #COL_LIST_STR#
-    &lt;/sql&gt;
-    &lt;select id="ven#ENT_NAME#Query" resultType="#PACK_QRY_DM_OUT#.#ENT_NAME#QueryDomainOut"&gt;
-    &lt;/select&gt;
-    &lt;insert id="ven#ENT_NAME#Save"&gt;
-    &lt;/insert&gt;
-    &lt;update id="ven#ENT_NAME#Update"&gt;
-    &lt;/update&gt;
-&lt;/mapper&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-数据库实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-Mapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-数据访问接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-SQL配置文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2357,10 +2547,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2372,23 +2562,24 @@
     <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="73.125" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2399,19 +2590,22 @@
       <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="I1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2419,21 +2613,24 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2441,21 +2638,24 @@
         <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2463,21 +2663,24 @@
         <v>5</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2485,21 +2688,24 @@
         <v>8</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2507,21 +2713,24 @@
         <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2529,21 +2738,24 @@
         <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2551,21 +2763,24 @@
         <v>19</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2573,21 +2788,24 @@
         <v>18</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2595,429 +2813,539 @@
         <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="283.5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>119</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="256.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="256.5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="378" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="364.5" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="270" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="378" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="364.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="H30" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>194</v>
+      <c r="H31" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3038,10 +3366,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3056,16 +3384,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>27</v>
@@ -3079,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>32</v>
@@ -3090,31 +3418,84 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
-        <v>2</v>
+      <c r="A3" s="2">
+        <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="11" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3122,7 +3503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3138,16 +3519,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>27</v>
@@ -3161,10 +3542,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3172,13 +3553,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3186,13 +3567,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3200,13 +3581,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3214,13 +3595,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3228,13 +3609,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3242,13 +3623,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3256,13 +3637,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3270,13 +3651,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3284,13 +3665,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3298,13 +3679,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3312,10 +3693,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
@@ -3326,13 +3707,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3340,13 +3721,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3354,10 +3735,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F16" s="8">
         <v>10</v>
@@ -3368,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F17" s="8">
         <v>2</v>
@@ -3382,13 +3763,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3396,13 +3777,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -3410,13 +3791,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3424,13 +3805,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -3438,13 +3819,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -3452,14 +3833,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="5" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -3468,14 +3849,14 @@
         <v>2</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3483,14 +3864,14 @@
         <v>2</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3498,14 +3879,14 @@
         <v>2</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3513,14 +3894,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3934,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
